--- a/3DES/PROJETOS/Pré-projeto/docs/Cronograma.xlsx
+++ b/3DES/PROJETOS/Pré-projeto/docs/Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento.DESKTOP-CJ165MI\Desktop\SENAI\3DES\PROJETOS\Pré-projeto\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EAE48B6-A233-43B5-90EA-A0A06721EAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4371813-8017-4407-A756-145DFE992776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1380" windowWidth="29040" windowHeight="15840" xr2:uid="{631DD806-D2EE-455E-80E3-DC5D6EC6E0D4}"/>
+    <workbookView xWindow="33045" yWindow="5580" windowWidth="21600" windowHeight="11385" xr2:uid="{631DD806-D2EE-455E-80E3-DC5D6EC6E0D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -314,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -341,7 +341,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -354,6 +353,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -381,13 +387,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6517E5E-222C-48A2-958A-11680B9A1EEC}">
   <dimension ref="B2:AG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z36" sqref="Z36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,82 +719,82 @@
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="30"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="34"/>
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="31" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="31" t="s">
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="33"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="37"/>
       <c r="AG4" s="1"/>
     </row>
     <row r="5" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="27"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="2">
         <v>17</v>
       </c>
@@ -890,9 +889,9 @@
         <v>12</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -924,10 +923,10 @@
       <c r="C7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -959,10 +958,10 @@
       <c r="C8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="19"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -970,9 +969,9 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -985,9 +984,9 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
@@ -996,12 +995,12 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1031,8 +1030,8 @@
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="24"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
@@ -1067,8 +1066,8 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
       <c r="J11" s="6"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
@@ -1103,8 +1102,8 @@
       <c r="F12" s="6"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="13"/>
       <c r="L12" s="12"/>
       <c r="O12" s="6"/>
@@ -1137,9 +1136,9 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="16"/>
@@ -1174,8 +1173,8 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
@@ -1210,8 +1209,6 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
@@ -1222,8 +1219,8 @@
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
@@ -1245,8 +1242,8 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
@@ -1280,21 +1277,21 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="35"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
       <c r="U17" s="5"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="25"/>
       <c r="AD17" s="6"/>
       <c r="AE17" s="6"/>
       <c r="AF17" s="6"/>
@@ -1321,14 +1318,14 @@
       <c r="R18" s="17"/>
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
       <c r="AE18" s="6"/>
@@ -1356,14 +1353,14 @@
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="17"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="4"/>
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
       <c r="AE19" s="17"/>
@@ -1387,22 +1384,22 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="18"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
@@ -1483,14 +1480,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="378ae9c7-94ba-4ad6-b5cc-4b1e8ece7333" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000D8EF6F577820946B8602BB820500206" ma:contentTypeVersion="11" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="eb0ea520d65106a4db443de7016bb375">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="378ae9c7-94ba-4ad6-b5cc-4b1e8ece7333" xmlns:ns4="808aa3f8-35f3-4c0d-8479-649ec4410f01" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e3e718f442f5afd8dd04587e361448e" ns3:_="" ns4:_="">
     <xsd:import namespace="378ae9c7-94ba-4ad6-b5cc-4b1e8ece7333"/>
@@ -1699,6 +1688,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="378ae9c7-94ba-4ad6-b5cc-4b1e8ece7333" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1709,23 +1706,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16EC815C-53AB-45C9-8A07-36430731BA11}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="808aa3f8-35f3-4c0d-8479-649ec4410f01"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="378ae9c7-94ba-4ad6-b5cc-4b1e8ece7333"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{610EC0A5-017C-494E-9219-AF31A442FA5D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1744,6 +1724,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16EC815C-53AB-45C9-8A07-36430731BA11}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="808aa3f8-35f3-4c0d-8479-649ec4410f01"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="378ae9c7-94ba-4ad6-b5cc-4b1e8ece7333"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C36A2D64-383C-42A6-B02E-61540607BDA5}">
   <ds:schemaRefs>

--- a/3DES/PROJETOS/Pré-projeto/docs/Cronograma.xlsx
+++ b/3DES/PROJETOS/Pré-projeto/docs/Cronograma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento.DESKTOP-CJ165MI\Desktop\SENAI\3DES\PROJETOS\Pré-projeto\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4371813-8017-4407-A756-145DFE992776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437744DE-A9B3-4133-A478-BE05F2361AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33045" yWindow="5580" windowWidth="21600" windowHeight="11385" xr2:uid="{631DD806-D2EE-455E-80E3-DC5D6EC6E0D4}"/>
+    <workbookView xWindow="30885" yWindow="4350" windowWidth="21600" windowHeight="11385" xr2:uid="{631DD806-D2EE-455E-80E3-DC5D6EC6E0D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +131,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -314,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -323,16 +330,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -344,7 +348,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -354,12 +357,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -387,6 +388,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,7 +709,7 @@
   <dimension ref="B2:AG22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AB25" sqref="AB25"/>
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,82 +724,82 @@
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="34"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="28"/>
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="35" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="35" t="s">
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="37"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="31"/>
       <c r="AG4" s="1"/>
     </row>
     <row r="5" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="31"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="2">
         <v>17</v>
       </c>
@@ -885,13 +890,13 @@
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -920,13 +925,13 @@
     </row>
     <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -955,13 +960,13 @@
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -969,9 +974,9 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -984,23 +989,23 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="21"/>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1028,418 +1033,418 @@
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="12"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="9"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="16"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
+      <c r="D21" s="12"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
     </row>
     <row r="22" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="7"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1480,6 +1485,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="378ae9c7-94ba-4ad6-b5cc-4b1e8ece7333" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000D8EF6F577820946B8602BB820500206" ma:contentTypeVersion="11" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="eb0ea520d65106a4db443de7016bb375">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="378ae9c7-94ba-4ad6-b5cc-4b1e8ece7333" xmlns:ns4="808aa3f8-35f3-4c0d-8479-649ec4410f01" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e3e718f442f5afd8dd04587e361448e" ns3:_="" ns4:_="">
     <xsd:import namespace="378ae9c7-94ba-4ad6-b5cc-4b1e8ece7333"/>
@@ -1688,14 +1701,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="378ae9c7-94ba-4ad6-b5cc-4b1e8ece7333" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1706,6 +1711,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16EC815C-53AB-45C9-8A07-36430731BA11}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="808aa3f8-35f3-4c0d-8479-649ec4410f01"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="378ae9c7-94ba-4ad6-b5cc-4b1e8ece7333"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{610EC0A5-017C-494E-9219-AF31A442FA5D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1724,23 +1746,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16EC815C-53AB-45C9-8A07-36430731BA11}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="808aa3f8-35f3-4c0d-8479-649ec4410f01"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="378ae9c7-94ba-4ad6-b5cc-4b1e8ece7333"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C36A2D64-383C-42A6-B02E-61540607BDA5}">
   <ds:schemaRefs>
